--- a/docs/IcoLL2026review.xlsx
+++ b/docs/IcoLL2026review.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85abc6e525293a5a/IcoSem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2954" documentId="8_{72A0A26E-C414-3843-8164-86942B662E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E180653-CC96-8245-B0AA-5B8F61C0DFBC}"/>
+  <xr:revisionPtr revIDLastSave="2965" documentId="8_{72A0A26E-C414-3843-8164-86942B662E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C70A6919-9F45-7741-8EB2-CEED732E6A3B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{F907FF33-73FE-BA4F-87A4-B9714037CBA9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="529">
   <si>
     <t>Date</t>
   </si>
@@ -3176,8 +3176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}">
   <dimension ref="A1:Q94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="107" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="F37" zoomScale="107" workbookViewId="0">
+      <selection activeCell="S50" sqref="S50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -5061,10 +5061,10 @@
         <v>457</v>
       </c>
       <c r="O40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P40" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q40" s="1">
         <v>3</v>
@@ -5393,19 +5393,10 @@
         <v>240</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>457</v>
+        <v>141</v>
       </c>
       <c r="O47" s="1">
         <v>2</v>
-      </c>
-      <c r="P47" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q47" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="20" customHeight="1">

--- a/docs/IcoLL2026review.xlsx
+++ b/docs/IcoLL2026review.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85abc6e525293a5a/IcoSem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Library/CloudStorage/OneDrive-개인/IcoSem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2965" documentId="8_{72A0A26E-C414-3843-8164-86942B662E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C70A6919-9F45-7741-8EB2-CEED732E6A3B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B665A183-B290-F945-95BA-06145E102D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{F907FF33-73FE-BA4F-87A4-B9714037CBA9}"/>
   </bookViews>
@@ -2851,10 +2851,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3176,8 +3172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}">
   <dimension ref="A1:Q94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F37" zoomScale="107" workbookViewId="0">
-      <selection activeCell="S50" sqref="S50"/>
+    <sheetView tabSelected="1" topLeftCell="E30" zoomScale="107" workbookViewId="0">
+      <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -5111,13 +5107,13 @@
         <v>526</v>
       </c>
       <c r="O41" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="20" customHeight="1">
@@ -5249,13 +5245,13 @@
         <v>526</v>
       </c>
       <c r="O44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:17" ht="20" customHeight="1">
@@ -6042,13 +6038,13 @@
         <v>461</v>
       </c>
       <c r="O61" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P61" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q61" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="20" customHeight="1">
@@ -6823,13 +6819,13 @@
         <v>461</v>
       </c>
       <c r="O78" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P78" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q78" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="20" customHeight="1">

--- a/docs/IcoLL2026review.xlsx
+++ b/docs/IcoLL2026review.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Library/CloudStorage/OneDrive-개인/IcoSem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B665A183-B290-F945-95BA-06145E102D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F80A95-7E20-B24A-ABE1-E9696AD2CCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{F907FF33-73FE-BA4F-87A4-B9714037CBA9}"/>
   </bookViews>
@@ -3172,8 +3172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}">
   <dimension ref="A1:Q94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E30" zoomScale="107" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="107" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -4625,7 +4625,7 @@
         <v>254</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>521</v>
+        <v>64</v>
       </c>
       <c r="O31" s="1">
         <v>1</v>

--- a/docs/IcoLL2026review.xlsx
+++ b/docs/IcoLL2026review.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Library/CloudStorage/OneDrive-개인/IcoSem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85abc6e525293a5a/IcoSem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F80A95-7E20-B24A-ABE1-E9696AD2CCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{C6F80A95-7E20-B24A-ABE1-E9696AD2CCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B7ABE36-A26C-9848-B5FD-6C487377D053}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{F907FF33-73FE-BA4F-87A4-B9714037CBA9}"/>
   </bookViews>
@@ -3172,8 +3172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}">
   <dimension ref="A1:Q94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="107" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="D12" zoomScale="107" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -4627,9 +4627,6 @@
       <c r="L31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O31" s="1">
-        <v>1</v>
-      </c>
     </row>
     <row r="32" spans="1:17" ht="20" customHeight="1">
       <c r="A32" s="3">
@@ -4910,10 +4907,7 @@
         <v>233</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="O37" s="1">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="20" customHeight="1">

--- a/docs/IcoLL2026review.xlsx
+++ b/docs/IcoLL2026review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85abc6e525293a5a/IcoSem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{C6F80A95-7E20-B24A-ABE1-E9696AD2CCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B7ABE36-A26C-9848-B5FD-6C487377D053}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{C6F80A95-7E20-B24A-ABE1-E9696AD2CCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B1EA055-35EC-9349-B912-F8288620689D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{F907FF33-73FE-BA4F-87A4-B9714037CBA9}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="30240" windowHeight="17460" xr2:uid="{F907FF33-73FE-BA4F-87A4-B9714037CBA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="529">
   <si>
     <t>Date</t>
   </si>
@@ -2851,6 +2851,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3172,8 +3176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}">
   <dimension ref="A1:Q94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" zoomScale="107" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -3350,10 +3354,7 @@
         <v>20</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>526</v>
+        <v>64</v>
       </c>
       <c r="O4" s="1">
         <v>1</v>

--- a/docs/IcoLL2026review.xlsx
+++ b/docs/IcoLL2026review.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85abc6e525293a5a/IcoSem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GitHub/icosem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{C6F80A95-7E20-B24A-ABE1-E9696AD2CCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B1EA055-35EC-9349-B912-F8288620689D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE80C9C6-0AEC-BF45-B9ED-57F21E9D2917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="30240" windowHeight="17460" xr2:uid="{F907FF33-73FE-BA4F-87A4-B9714037CBA9}"/>
   </bookViews>
@@ -2851,10 +2851,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3177,7 +3173,7 @@
   <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="N100" sqref="N100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -3356,15 +3352,6 @@
       <c r="L4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="5" spans="1:17" ht="20" customHeight="1">
       <c r="A5" s="3">
@@ -7342,10 +7329,7 @@
         <v>476</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="O90" s="1">
-        <v>2</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="20" customHeight="1">

--- a/docs/IcoLL2026review.xlsx
+++ b/docs/IcoLL2026review.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GitHub/icosem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85abc6e525293a5a/IcoSem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE80C9C6-0AEC-BF45-B9ED-57F21E9D2917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{C6F80A95-7E20-B24A-ABE1-E9696AD2CCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{616970E6-EE55-6B46-AC6F-A87B00FD92C0}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="30240" windowHeight="17460" xr2:uid="{F907FF33-73FE-BA4F-87A4-B9714037CBA9}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="529">
   <si>
     <t>Date</t>
   </si>
@@ -3173,7 +3173,7 @@
   <dimension ref="A1:Q94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="N100" sqref="N100"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -3352,6 +3352,15 @@
       <c r="L4" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:17" ht="20" customHeight="1">
       <c r="A5" s="3">
@@ -3811,10 +3820,7 @@
         <v>77</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>522</v>
+        <v>64</v>
       </c>
       <c r="O14" s="1">
         <v>2</v>
@@ -7330,6 +7336,9 @@
       </c>
       <c r="L90" s="1" t="s">
         <v>64</v>
+      </c>
+      <c r="O90" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="20" customHeight="1">

--- a/docs/IcoLL2026review.xlsx
+++ b/docs/IcoLL2026review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85abc6e525293a5a/IcoSem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{C6F80A95-7E20-B24A-ABE1-E9696AD2CCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{616970E6-EE55-6B46-AC6F-A87B00FD92C0}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{C6F80A95-7E20-B24A-ABE1-E9696AD2CCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{523510B3-3CC2-2A4A-BE7A-97E6C1D7F81C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="30240" windowHeight="17460" xr2:uid="{F907FF33-73FE-BA4F-87A4-B9714037CBA9}"/>
   </bookViews>
@@ -2851,6 +2851,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3172,8 +3176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE621C6-74A1-3E41-B09D-44003E70AA36}">
   <dimension ref="A1:Q94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="107" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" customHeight="1"/>
@@ -3822,15 +3826,6 @@
       <c r="L14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O14" s="1">
-        <v>2</v>
-      </c>
-      <c r="P14" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>3</v>
-      </c>
     </row>
     <row r="15" spans="1:17" ht="20" customHeight="1">
       <c r="A15" s="3">
@@ -5468,10 +5463,7 @@
         <v>303</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="O49" s="1">
-        <v>1</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="20" customHeight="1">
